--- a/kpiMember.xlsx
+++ b/kpiMember.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">CÔNG TY CỔ PHẦN ĐẦU TƯ </t>
   </si>
@@ -50,15 +50,6 @@
   </si>
   <si>
     <t>##</t>
-  </si>
-  <si>
-    <t>TỔNG TIỀN</t>
-  </si>
-  <si>
-    <t>{amountMoneyNumber}</t>
-  </si>
-  <si>
-    <t>{amountMoneyText}</t>
   </si>
   <si>
     <t>KẾ TOÁN</t>
@@ -72,12 +63,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,9 +97,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -120,24 +142,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,107 +204,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,37 +250,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,13 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,132 +430,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -475,6 +459,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -482,9 +475,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -493,79 +484,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,6 +508,54 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,152 +588,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -788,31 +755,22 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1137,7 +1095,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1166,7 +1124,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="17.4" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1184,7 +1142,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="17"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5"/>
@@ -1197,7 +1155,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="6" ht="34.8" spans="1:9">
+    <row r="6" ht="17.4" spans="1:9">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1220,40 +1178,35 @@
         <v>10</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="10"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="19"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="10" ht="17.4" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="G10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="G10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/kpiMember.xlsx
+++ b/kpiMember.xlsx
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -97,54 +97,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,16 +159,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,6 +197,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -211,13 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -226,9 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +229,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,31 +250,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,13 +400,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,140 +434,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -459,15 +459,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -488,35 +479,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +529,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -577,18 +570,16 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,130 +597,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,17 +746,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1095,7 +1084,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1209,14 +1198,12 @@
       <c r="I10" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="A10:B10"/>
   </mergeCells>
